--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/67/word_level_predictions_67.xlsx
@@ -4506,104 +4506,104 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>7</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>3</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>7</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>4</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7054,470 +7054,470 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
+      <c r="A128" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" t="n">
+      <c r="D128" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="E128" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
+      <c r="A130" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
+      <c r="A131" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" t="n">
+      <c r="D131" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
+      <c r="A132" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" s="2" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" t="n">
+      <c r="D132" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
+      <c r="A134" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" t="n">
+      <c r="D134" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
+      <c r="A135" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" s="2" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" t="n">
+      <c r="D135" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
+      <c r="A136" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" t="n">
+      <c r="D136" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="E136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9446,158 +9446,158 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="F183" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G183" s="2" t="b">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G186" s="2" t="b">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10694,574 +10694,574 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>18</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>18</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>18</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>2</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F200" s="2" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>18</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>3</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>18</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>4</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F202" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>18</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>5</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G211" t="b">
@@ -11417,59 +11417,59 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -12202,728 +12202,728 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>20</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" s="2" t="inlineStr">
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" s="2" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>20</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" s="2" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>20</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>2</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F229" s="2" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>20</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>3</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F230" s="2" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>20</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>4</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>20</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>5</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F232" s="2" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>20</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>20</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>10</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="A238" t="n">
         <v>20</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D238" s="2" t="n">
+      <c r="D238" t="n">
         <v>11</v>
       </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="A239" t="n">
         <v>20</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D239" s="2" t="n">
+      <c r="D239" t="n">
         <v>12</v>
       </c>
-      <c r="E239" s="2" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F239" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>20</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>13</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem1/67/word_level_predictions_67.xlsx
@@ -4506,104 +4506,104 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7054,470 +7054,470 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>12</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>7</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>12</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>8</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>12</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>9</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>12</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>10</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>12</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>11</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>12</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>12</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>12</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>13</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>12</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>14</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>12</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>15</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9446,158 +9446,158 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G182" s="2" t="b">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L182" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       </c>
       <c r="F183" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G183" s="2" t="b">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L183" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G186" s="2" t="b">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10694,574 +10694,574 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>2</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>18</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>3</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>18</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>4</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>18</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>5</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11393,83 +11393,83 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>19</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Info:</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>2</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>Info:</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -12202,728 +12202,728 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" t="inlineStr">
+      <c r="D227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F227" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E229" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F229" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
+      <c r="I229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B233" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>When</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E233" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D229" t="n">
-        <v>2</v>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>20</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>3</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>20</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>4</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>20</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>5</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>20</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>When</t>
-        </is>
-      </c>
-      <c r="D233" t="n">
-        <v>6</v>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>20</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>20</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
